--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>
@@ -61,9 +61,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>0220</t>
   </si>
   <si>
@@ -82,35 +79,37 @@
     <t>Enable</t>
   </si>
   <si>
-    <t>0935555555</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>NewTest0006</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>sTest0006</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>New password (*)</t>
+  </si>
+  <si>
+    <t>Re-type new password (*)</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>NewTest00063</t>
+  </si>
+  <si>
+    <t>0000613</t>
+  </si>
+  <si>
+    <t>sTest000613</t>
+  </si>
+  <si>
+    <t>09050505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -492,32 +494,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -534,40 +536,43 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -584,35 +589,39 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="Q2" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>admin</t>
   </si>
@@ -91,25 +91,32 @@
     <t>Re-type new password (*)</t>
   </si>
   <si>
-    <t>Test123</t>
-  </si>
-  <si>
-    <t>NewTest00063</t>
-  </si>
-  <si>
-    <t>0000613</t>
-  </si>
-  <si>
-    <t>sTest000613</t>
-  </si>
-  <si>
     <t>09050505</t>
+  </si>
+  <si>
+    <t>Test1231232</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>NewTest000632a22</t>
+  </si>
+  <si>
+    <t>0000461223</t>
+  </si>
+  <si>
+    <t>sTest000s61223</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,9 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -496,27 +500,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="5" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -595,16 +599,16 @@
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -618,10 +622,12 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>admin</t>
   </si>
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>
@@ -64,15 +64,6 @@
     <t>0220</t>
   </si>
   <si>
-    <t>D.Na233</t>
-  </si>
-  <si>
-    <t>Dicentral233</t>
-  </si>
-  <si>
-    <t>VN233</t>
-  </si>
-  <si>
     <t>Account Type</t>
   </si>
   <si>
@@ -97,19 +88,25 @@
     <t>Test1231232</t>
   </si>
   <si>
+    <t>Henry0030</t>
+  </si>
+  <si>
+    <t>900030</t>
+  </si>
+  <si>
+    <t>D.Na262</t>
+  </si>
+  <si>
+    <t>Dicentral262</t>
+  </si>
+  <si>
+    <t>VN262</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
     <t>FAILED</t>
-  </si>
-  <si>
-    <t>NewTest000632a22</t>
-  </si>
-  <si>
-    <t>0000461223</t>
-  </si>
-  <si>
-    <t>sTest000s61223</t>
-  </si>
-  <si>
-    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -500,9 +497,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>12</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -587,46 +584,46 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>
@@ -88,12 +88,6 @@
     <t>Test1231232</t>
   </si>
   <si>
-    <t>Henry0030</t>
-  </si>
-  <si>
-    <t>900030</t>
-  </si>
-  <si>
     <t>D.Na262</t>
   </si>
   <si>
@@ -103,10 +97,16 @@
     <t>VN262</t>
   </si>
   <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>MrRobot0001</t>
+  </si>
+  <si>
+    <t>010001</t>
+  </si>
+  <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -497,9 +497,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -584,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -602,19 +602,19 @@
         <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>15</v>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>
@@ -61,9 +61,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>0220</t>
-  </si>
-  <si>
     <t>Account Type</t>
   </si>
   <si>
@@ -82,28 +79,28 @@
     <t>Re-type new password (*)</t>
   </si>
   <si>
-    <t>09050505</t>
-  </si>
-  <si>
     <t>Test1231232</t>
   </si>
   <si>
-    <t>D.Na262</t>
-  </si>
-  <si>
-    <t>Dicentral262</t>
-  </si>
-  <si>
-    <t>VN262</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>MrRobot0001</t>
-  </si>
-  <si>
-    <t>010001</t>
+    <t>Add Or Delete</t>
+  </si>
+  <si>
+    <t>010005</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Henry0005</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>0945555555</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -172,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,7 +186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,32 +491,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -531,49 +528,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -583,56 +583,62 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="R2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"Trial,Standard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Add,Delete,Edit"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="55">
   <si>
     <t>admin</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Enable</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -79,28 +76,106 @@
     <t>Re-type new password (*)</t>
   </si>
   <si>
-    <t>Test1231232</t>
-  </si>
-  <si>
     <t>Add Or Delete</t>
   </si>
   <si>
-    <t>010005</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Henry0005</t>
-  </si>
-  <si>
-    <t>A0001</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>0945555555</t>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Account00001</t>
+  </si>
+  <si>
+    <t>Account00002</t>
+  </si>
+  <si>
+    <t>Account00003</t>
+  </si>
+  <si>
+    <t>Account00004</t>
+  </si>
+  <si>
+    <t>Account00005</t>
+  </si>
+  <si>
+    <t>Account00006</t>
+  </si>
+  <si>
+    <t>Account00007</t>
+  </si>
+  <si>
+    <t>Account00008</t>
+  </si>
+  <si>
+    <t>Account00009</t>
+  </si>
+  <si>
+    <t>Account00010</t>
+  </si>
+  <si>
+    <t>Account00011</t>
+  </si>
+  <si>
+    <t>Account00012</t>
+  </si>
+  <si>
+    <t>Account00013</t>
+  </si>
+  <si>
+    <t>Account00014</t>
+  </si>
+  <si>
+    <t>Account00015</t>
+  </si>
+  <si>
+    <t>Account00016</t>
+  </si>
+  <si>
+    <t>Account00017</t>
+  </si>
+  <si>
+    <t>Account00018</t>
+  </si>
+  <si>
+    <t>Account00019</t>
+  </si>
+  <si>
+    <t>Account00020</t>
+  </si>
+  <si>
+    <t>Account00021</t>
+  </si>
+  <si>
+    <t>Account00022</t>
+  </si>
+  <si>
+    <t>Account00023</t>
+  </si>
+  <si>
+    <t>Account00024</t>
+  </si>
+  <si>
+    <t>Account00025</t>
+  </si>
+  <si>
+    <t>Account00026</t>
+  </si>
+  <si>
+    <t>Account00027</t>
+  </si>
+  <si>
+    <t>Account00028</t>
+  </si>
+  <si>
+    <t>Account00029</t>
+  </si>
+  <si>
+    <t>Trial</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -491,11 +566,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +582,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
     <col min="6" max="9" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
@@ -528,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -543,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>12</v>
@@ -584,60 +659,1193 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"Trial,Standard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30">
       <formula1>"Add,Delete,Edit"</formula1>
     </dataValidation>
   </dataValidations>

--- a/UCProject/src/data/CustomerExcel.xlsx
+++ b/UCProject/src/data/CustomerExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="51">
   <si>
     <t>admin</t>
   </si>
@@ -82,100 +82,88 @@
     <t>12345678</t>
   </si>
   <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Account00001</t>
-  </si>
-  <si>
-    <t>Account00002</t>
-  </si>
-  <si>
-    <t>Account00003</t>
-  </si>
-  <si>
-    <t>Account00004</t>
-  </si>
-  <si>
-    <t>Account00005</t>
-  </si>
-  <si>
-    <t>Account00006</t>
-  </si>
-  <si>
-    <t>Account00007</t>
-  </si>
-  <si>
-    <t>Account00008</t>
-  </si>
-  <si>
-    <t>Account00009</t>
-  </si>
-  <si>
-    <t>Account00010</t>
-  </si>
-  <si>
-    <t>Account00011</t>
-  </si>
-  <si>
-    <t>Account00012</t>
-  </si>
-  <si>
-    <t>Account00013</t>
-  </si>
-  <si>
-    <t>Account00014</t>
-  </si>
-  <si>
-    <t>Account00015</t>
-  </si>
-  <si>
-    <t>Account00016</t>
-  </si>
-  <si>
-    <t>Account00017</t>
-  </si>
-  <si>
-    <t>Account00018</t>
-  </si>
-  <si>
-    <t>Account00019</t>
-  </si>
-  <si>
-    <t>Account00020</t>
-  </si>
-  <si>
-    <t>Account00021</t>
-  </si>
-  <si>
-    <t>Account00022</t>
-  </si>
-  <si>
-    <t>Account00023</t>
-  </si>
-  <si>
-    <t>Account00024</t>
-  </si>
-  <si>
-    <t>Account00025</t>
-  </si>
-  <si>
-    <t>Account00026</t>
-  </si>
-  <si>
-    <t>Account00027</t>
-  </si>
-  <si>
-    <t>Account00028</t>
-  </si>
-  <si>
-    <t>Account00029</t>
-  </si>
-  <si>
-    <t>Trial</t>
+    <t>AccountQCCIP00001</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00002</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00003</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00004</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00005</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00006</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00007</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00008</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00009</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00010</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00011</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00012</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00013</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00014</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00015</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00016</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00017</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00018</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00019</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00020</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00021</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00022</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00023</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00024</t>
+  </si>
+  <si>
+    <t>AccountQCCIP00025</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -566,11 +554,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +568,12 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="6" max="9" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.7109375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
@@ -659,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>17</v>
@@ -680,13 +670,13 @@
         <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -700,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>17</v>
@@ -721,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -741,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>17</v>
@@ -762,13 +752,13 @@
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -782,16 +772,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>17</v>
@@ -803,13 +793,13 @@
         <v>21</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -823,16 +813,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>17</v>
@@ -844,13 +834,13 @@
         <v>21</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -864,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>17</v>
@@ -885,13 +875,13 @@
         <v>21</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -905,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
@@ -926,13 +916,13 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,16 +936,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>17</v>
@@ -967,13 +957,13 @@
         <v>21</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -987,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>17</v>
@@ -1008,13 +998,13 @@
         <v>21</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1028,16 +1018,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
@@ -1049,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1069,16 +1059,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>17</v>
@@ -1090,13 +1080,13 @@
         <v>21</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1110,16 +1100,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>17</v>
@@ -1131,13 +1121,13 @@
         <v>21</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1151,16 +1141,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
@@ -1172,13 +1162,13 @@
         <v>21</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1192,16 +1182,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>17</v>
@@ -1213,13 +1203,13 @@
         <v>21</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1233,16 +1223,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>17</v>
@@ -1254,13 +1244,13 @@
         <v>21</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1274,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
@@ -1295,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1315,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>17</v>
@@ -1336,13 +1326,13 @@
         <v>21</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1356,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>17</v>
@@ -1377,13 +1367,13 @@
         <v>21</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1397,16 +1387,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>17</v>
@@ -1418,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1438,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
@@ -1459,13 +1449,13 @@
         <v>21</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1479,16 +1469,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>17</v>
@@ -1500,13 +1490,13 @@
         <v>21</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1520,16 +1510,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
@@ -1541,13 +1531,13 @@
         <v>21</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1561,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>17</v>
@@ -1582,13 +1572,13 @@
         <v>21</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1602,16 +1592,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>17</v>
@@ -1623,13 +1613,13 @@
         <v>21</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1643,16 +1633,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>17</v>
@@ -1664,188 +1654,37 @@
         <v>21</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="D27" s="4"/>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="R28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G26">
       <formula1>"Trial,Standard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H26">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27">
       <formula1>"Add,Delete,Edit"</formula1>
     </dataValidation>
   </dataValidations>
